--- a/Robbie_Robot_Shop_Scrum_Homework6.xlsx
+++ b/Robbie_Robot_Shop_Scrum_Homework6.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/ownCloud/UTA/2016-Fall/ObjectOrientatedProgramming/Homework/Homework5/OOPHW5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moral_000\Desktop\CSE 1325 HW 5\HW6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="627"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="627" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 4 Backlog" sheetId="3" r:id="rId2"/>
-    <sheet name="Sprint NN Backlog" sheetId="2" r:id="rId3"/>
+    <sheet name="Sprint 5 Backlog" sheetId="4" r:id="rId3"/>
+    <sheet name="Sprint NN Backlog" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="171">
   <si>
     <t>Product Name:</t>
   </si>
@@ -502,18 +503,57 @@
   </si>
   <si>
     <t>RA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Started </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update MakeFile </t>
+  </si>
+  <si>
+    <t>Create a GUI window</t>
+  </si>
+  <si>
+    <t>Test robot parts via GUI dialogs</t>
+  </si>
+  <si>
+    <t>Test new robot models via GUI dialogs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update Scrum </t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Create</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Started</t>
+  </si>
+  <si>
+    <t>Complete</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mmm\ dd"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy\ hh:mm\ AM/PM"/>
     <numFmt numFmtId="166" formatCode="mmmm\ d&quot;, &quot;yyyy"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -583,6 +623,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -619,7 +665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -642,60 +688,75 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -782,12 +843,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
@@ -811,7 +875,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -862,36 +925,41 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.0</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7C66-4101-90D0-9FB6674D5DFB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -930,7 +998,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -944,7 +1011,7 @@
           </a:ln>
         </c:spPr>
         <c:crossAx val="2137307888"/>
-        <c:crossesAt val="0.0"/>
+        <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -984,7 +1051,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -999,7 +1065,7 @@
           </a:ln>
         </c:spPr>
         <c:crossAx val="2137302512"/>
-        <c:crossesAt val="0.0"/>
+        <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -1032,7 +1098,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
@@ -1063,7 +1129,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1114,33 +1179,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F7FB-4E2D-B166-619624970607}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1179,7 +1249,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -1193,7 +1262,7 @@
           </a:ln>
         </c:spPr>
         <c:crossAx val="-2099141152"/>
-        <c:crossesAt val="0.0"/>
+        <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1233,7 +1302,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1248,7 +1316,7 @@
           </a:ln>
         </c:spPr>
         <c:crossAx val="-2099051536"/>
-        <c:crossesAt val="0.0"/>
+        <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -1281,7 +1349,246 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1300">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Sprint Burn Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 5 Backlog'!$B$6:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FE11-4D35-A526-8DEE62EEF869}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2099051536"/>
+        <c:axId val="-2099141152"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2099051536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Tasks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="1"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="-2099141152"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2099141152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B3B3B3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Days</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="1"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="-2099051536"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="B3B3B3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
@@ -1305,7 +1612,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1356,33 +1662,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FADB-4EAE-8A34-7F1951605C6A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1421,7 +1732,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -1435,7 +1745,7 @@
           </a:ln>
         </c:spPr>
         <c:crossAx val="2137343552"/>
-        <c:crossesAt val="0.0"/>
+        <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1475,7 +1785,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1490,7 +1799,7 @@
           </a:ln>
         </c:spPr>
         <c:crossAx val="2137334624"/>
-        <c:crossesAt val="0.0"/>
+        <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -1533,13 +1842,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>144720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1567,14 +1882,20 @@
       <xdr:rowOff>67320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>134280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1604,6 +1925,49 @@
       <xdr:rowOff>67320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1698625</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>134280</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80098D6C-94A6-4F99-8C82-7DC6B36A47B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>67320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>660400</xdr:colOff>
       <xdr:row>12</xdr:row>
@@ -1611,7 +1975,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1892,24 +2262,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A35" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="11.83203125" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" style="1" customWidth="1"/>
-    <col min="6" max="10" width="11.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="1" customWidth="1"/>
+    <col min="6" max="10" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="24" t="s">
         <v>148</v>
       </c>
       <c r="C1" s="2"/>
@@ -1919,11 +2291,11 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="23" t="s">
         <v>149</v>
       </c>
       <c r="C2" s="2"/>
@@ -1933,7 +2305,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1943,11 +2315,11 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="24" t="s">
         <v>150</v>
       </c>
       <c r="C4" s="2"/>
@@ -1957,7 +2329,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1971,11 +2343,11 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="25">
         <v>1001071273</v>
       </c>
       <c r="C6" s="2"/>
@@ -1985,7 +2357,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1995,7 +2367,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2007,11 +2379,11 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="24" t="s">
         <v>152</v>
       </c>
       <c r="C9" s="2"/>
@@ -2021,11 +2393,11 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="24" t="s">
         <v>153</v>
       </c>
       <c r="C10" s="2"/>
@@ -2035,21 +2407,21 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="41">
         <v>1000929992</v>
       </c>
-      <c r="C11" s="36"/>
+      <c r="C11" s="41"/>
       <c r="D11" s="2"/>
       <c r="E11" s="3"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2059,11 +2431,11 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="24" t="s">
         <v>154</v>
       </c>
       <c r="C13" s="2"/>
@@ -2073,7 +2445,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -2087,21 +2459,21 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="41">
         <v>1001298502</v>
       </c>
-      <c r="C15" s="36"/>
+      <c r="C15" s="41"/>
       <c r="D15" s="2"/>
       <c r="E15" s="3"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2111,11 +2483,11 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="24" t="s">
         <v>156</v>
       </c>
       <c r="C17" s="2"/>
@@ -2125,11 +2497,11 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="24" t="s">
         <v>157</v>
       </c>
       <c r="C18" s="2"/>
@@ -2139,21 +2511,21 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="41">
         <v>1001166546</v>
       </c>
-      <c r="C19" s="36"/>
+      <c r="C19" s="41"/>
       <c r="D19" s="2"/>
       <c r="E19" s="3"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2163,12 +2535,12 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="6">
-        <f>COUNT(B34:B149)</f>
+        <f>COUNT(B34:B147)</f>
         <v>36</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -2182,13 +2554,12 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="2">
-        <f t="shared" ref="B22:B29" si="0">B21</f>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>10</v>
@@ -2201,19 +2572,18 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="2">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="8">
-        <f t="shared" ref="D23:D28" si="1">D22+7</f>
+        <f t="shared" ref="D23:D28" si="0">D22+7</f>
         <v>42656</v>
       </c>
       <c r="E23" s="3"/>
@@ -2221,19 +2591,18 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="2">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42663</v>
       </c>
       <c r="E24" s="3"/>
@@ -2241,19 +2610,18 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="2">
+        <v>26</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="8">
         <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="8">
-        <f t="shared" si="1"/>
         <v>42670</v>
       </c>
       <c r="E25" s="3"/>
@@ -2261,19 +2629,19 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>15</v>
       </c>
       <c r="B26" s="2">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <f t="shared" ref="B26:B29" si="1">B25</f>
+        <v>26</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42677</v>
       </c>
       <c r="E26" s="3"/>
@@ -2281,19 +2649,19 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>16</v>
       </c>
       <c r="B27" s="2">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <f t="shared" si="1"/>
+        <v>26</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42684</v>
       </c>
       <c r="E27" s="3"/>
@@ -2301,19 +2669,19 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>17</v>
       </c>
       <c r="B28" s="2">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <f t="shared" si="1"/>
+        <v>26</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42691</v>
       </c>
       <c r="E28" s="3"/>
@@ -2321,13 +2689,13 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>18</v>
       </c>
       <c r="B29" s="2">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <f t="shared" si="1"/>
+        <v>26</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>14</v>
@@ -2340,7 +2708,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2350,7 +2718,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2362,7 +2730,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2374,7 +2742,7 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>21</v>
       </c>
@@ -2403,724 +2771,953 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="78" x14ac:dyDescent="0.15">
-      <c r="B34">
+    <row r="34" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
         <v>1</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D34" s="1">
+        <v>5</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G34" s="12" t="s">
+      <c r="G34" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="H34" s="12" t="s">
+      <c r="H34" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="I34" s="12" t="s">
+      <c r="I34" s="31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="13" customFormat="1" ht="78" x14ac:dyDescent="0.15">
-      <c r="B35" s="13">
+    <row r="35" spans="1:9" s="28" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="29">
         <v>2</v>
       </c>
-      <c r="E35" s="14">
+      <c r="B35" s="29">
+        <v>2</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="D35" s="29">
         <v>1</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="E35" s="29">
+        <v>1</v>
+      </c>
+      <c r="F35" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="G35" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="H35" s="15" t="s">
+      <c r="H35" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="I35" s="15" t="s">
+      <c r="I35" s="32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="208" x14ac:dyDescent="0.15">
-      <c r="B36">
+    <row r="36" spans="1:9" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
         <v>3</v>
+      </c>
+      <c r="B36" s="1">
+        <v>3</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D36" s="1">
+        <v>5</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G36" s="12" t="s">
+      <c r="G36" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="H36" s="12" t="s">
+      <c r="H36" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="I36" s="12" t="s">
+      <c r="I36" s="31" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="13" customFormat="1" ht="104" x14ac:dyDescent="0.15">
-      <c r="B37" s="13">
+    <row r="37" spans="1:9" s="28" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="29">
         <v>4</v>
       </c>
-      <c r="E37" s="14">
+      <c r="B37" s="29">
+        <v>4</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="D37" s="29">
+        <v>2</v>
+      </c>
+      <c r="E37" s="29">
         <v>1</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="G37" s="15" t="s">
+      <c r="G37" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H37" s="15" t="s">
+      <c r="H37" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="I37" s="15" t="s">
+      <c r="I37" s="32" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="91" x14ac:dyDescent="0.15">
-      <c r="B38">
+    <row r="38" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>5</v>
+      </c>
+      <c r="B38" s="1">
+        <v>5</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D38" s="1">
         <v>5</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G38" s="12" t="s">
+      <c r="G38" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="H38" s="12" t="s">
+      <c r="H38" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="I38" s="12" t="s">
+      <c r="I38" s="31" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="13" customFormat="1" ht="91" x14ac:dyDescent="0.15">
-      <c r="B39" s="13">
+    <row r="39" spans="1:9" s="28" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="29">
         <v>6</v>
       </c>
-      <c r="E39" s="14">
+      <c r="B39" s="29">
+        <v>6</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="D39" s="29">
+        <v>2</v>
+      </c>
+      <c r="E39" s="29">
         <v>1</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="G39" s="15" t="s">
+      <c r="G39" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="H39" s="15" t="s">
+      <c r="H39" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="I39" s="15" t="s">
+      <c r="I39" s="32" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="169" x14ac:dyDescent="0.15">
-      <c r="B40">
+    <row r="40" spans="1:9" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
         <v>7</v>
       </c>
+      <c r="B40" s="1">
+        <v>7</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
       <c r="E40" s="1">
         <v>1</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G40" s="12" t="s">
+      <c r="G40" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="H40" s="12" t="s">
+      <c r="H40" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="I40" s="12" t="s">
+      <c r="I40" s="31" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="143" x14ac:dyDescent="0.15">
-      <c r="B41">
+    <row r="41" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="12">
         <v>8</v>
       </c>
+      <c r="B41" s="1">
+        <v>8</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
       <c r="E41" s="1">
         <v>1</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G41" s="12" t="s">
+      <c r="G41" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="H41" s="12" t="s">
+      <c r="H41" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="I41" s="12" t="s">
+      <c r="I41" s="31" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="13" customFormat="1" ht="104" x14ac:dyDescent="0.15">
-      <c r="B42" s="13">
+    <row r="42" spans="1:9" s="28" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="29">
         <v>9</v>
       </c>
-      <c r="E42" s="14">
+      <c r="B42" s="29">
+        <v>9</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="D42" s="29">
+        <v>2</v>
+      </c>
+      <c r="E42" s="29">
         <v>1</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="F42" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="G42" s="15" t="s">
+      <c r="G42" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="H42" s="15" t="s">
+      <c r="H42" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="I42" s="15" t="s">
+      <c r="I42" s="32" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="130" x14ac:dyDescent="0.15">
-      <c r="B43">
+    <row r="43" spans="1:9" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="12">
         <v>10</v>
       </c>
+      <c r="B43" s="1">
+        <v>10</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
       <c r="E43" s="1">
         <v>1</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G43" s="12" t="s">
+      <c r="G43" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="H43" s="12" t="s">
+      <c r="H43" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="I43" s="12" t="s">
+      <c r="I43" s="31" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="117" x14ac:dyDescent="0.15">
-      <c r="B44">
+    <row r="44" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
         <v>11</v>
       </c>
+      <c r="B44" s="1">
+        <v>11</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
       <c r="E44" s="1">
         <v>1</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G44" s="12" t="s">
+      <c r="G44" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="H44" s="12" t="s">
+      <c r="H44" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="I44" s="12" t="s">
+      <c r="I44" s="31" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="65" x14ac:dyDescent="0.15">
-      <c r="B45">
+    <row r="45" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="12">
         <v>12</v>
       </c>
+      <c r="B45" s="1">
+        <v>12</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
       <c r="E45" s="1">
         <v>1</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G45" s="12" t="s">
+      <c r="G45" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="H45" s="12" t="s">
+      <c r="H45" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="I45" s="12"/>
-    </row>
-    <row r="46" spans="1:9" s="16" customFormat="1" ht="130" x14ac:dyDescent="0.15">
-      <c r="B46">
+      <c r="I45" s="31"/>
+    </row>
+    <row r="46" spans="1:9" s="28" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="29">
         <v>13</v>
       </c>
-      <c r="E46" s="14">
+      <c r="B46" s="29">
+        <v>13</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="D46" s="30">
         <v>2</v>
       </c>
-      <c r="F46" s="13" t="s">
+      <c r="E46" s="30">
+        <v>2</v>
+      </c>
+      <c r="F46" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="G46" s="15" t="s">
+      <c r="G46" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="H46" s="15" t="s">
+      <c r="H46" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="I46" s="15" t="s">
+      <c r="I46" s="32" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="16" customFormat="1" ht="143" x14ac:dyDescent="0.15">
-      <c r="B47">
+    <row r="47" spans="1:9" s="13" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="12">
         <v>14</v>
       </c>
-      <c r="E47" s="17">
+      <c r="B47" s="1">
+        <v>14</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14">
         <v>2</v>
       </c>
-      <c r="F47" s="16" t="s">
+      <c r="F47" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="G47" s="18" t="s">
+      <c r="G47" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="H47" s="18" t="s">
+      <c r="H47" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="I47" s="18" t="s">
+      <c r="I47" s="33" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="16" customFormat="1" ht="117" x14ac:dyDescent="0.15">
-      <c r="B48">
+    <row r="48" spans="1:9" s="13" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
         <v>15</v>
       </c>
-      <c r="E48" s="17">
+      <c r="B48" s="1">
+        <v>15</v>
+      </c>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14">
         <v>2</v>
       </c>
-      <c r="F48" s="16" t="s">
+      <c r="F48" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="G48" s="18" t="s">
+      <c r="G48" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="H48" s="18" t="s">
+      <c r="H48" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="I48" s="18" t="s">
+      <c r="I48" s="33" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="2:9" s="16" customFormat="1" ht="156" x14ac:dyDescent="0.15">
-      <c r="B49">
+    <row r="49" spans="1:9" s="13" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="12">
         <v>16</v>
       </c>
-      <c r="E49" s="17">
+      <c r="B49" s="1">
+        <v>16</v>
+      </c>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14">
         <v>2</v>
       </c>
-      <c r="F49" s="16" t="s">
+      <c r="F49" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="G49" s="18" t="s">
+      <c r="G49" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="H49" s="18" t="s">
+      <c r="H49" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="I49" s="18" t="s">
+      <c r="I49" s="33" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="2:9" s="19" customFormat="1" ht="117" x14ac:dyDescent="0.15">
-      <c r="B50" s="16">
+    <row r="50" spans="1:9" s="26" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="29">
+        <v>17</v>
+      </c>
+      <c r="B50" s="29">
         <v>23</v>
       </c>
-      <c r="E50" s="20">
+      <c r="C50" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="D50" s="27">
         <v>2</v>
       </c>
-      <c r="F50" s="21" t="s">
+      <c r="E50" s="27">
+        <v>2</v>
+      </c>
+      <c r="F50" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="G50" s="22" t="s">
+      <c r="G50" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="H50" s="22" t="s">
+      <c r="H50" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="I50" s="22" t="s">
+      <c r="I50" s="34" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="2:9" s="19" customFormat="1" ht="117" x14ac:dyDescent="0.15">
-      <c r="B51" s="16">
+    <row r="51" spans="1:9" s="15" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="12">
+        <v>18</v>
+      </c>
+      <c r="B51" s="14">
         <v>24</v>
       </c>
-      <c r="E51" s="23">
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16">
         <v>2</v>
       </c>
-      <c r="F51" s="19" t="s">
+      <c r="F51" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="G51" s="24" t="s">
+      <c r="G51" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="H51" s="24" t="s">
+      <c r="H51" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="I51" s="24" t="s">
+      <c r="I51" s="35" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="2:9" s="25" customFormat="1" ht="273" x14ac:dyDescent="0.15">
-      <c r="B52" s="25">
+    <row r="52" spans="1:9" s="17" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>19</v>
+      </c>
+      <c r="B52" s="18">
         <v>17</v>
       </c>
-      <c r="E52" s="26">
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18">
         <v>3</v>
       </c>
-      <c r="F52" s="25" t="s">
+      <c r="F52" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G52" s="27" t="s">
+      <c r="G52" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="H52" s="27" t="s">
+      <c r="H52" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="I52" s="27" t="s">
+      <c r="I52" s="36" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="2:9" s="25" customFormat="1" ht="156" x14ac:dyDescent="0.15">
-      <c r="B53" s="25">
+    <row r="53" spans="1:9" s="17" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="12">
+        <v>20</v>
+      </c>
+      <c r="B53" s="18">
         <v>18</v>
       </c>
-      <c r="E53" s="26">
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18">
         <v>3</v>
       </c>
-      <c r="F53" s="25" t="s">
+      <c r="F53" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G53" s="27" t="s">
+      <c r="G53" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="H53" s="27" t="s">
+      <c r="H53" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="I53" s="27" t="s">
+      <c r="I53" s="36" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="E54"/>
-    </row>
-    <row r="56" spans="2:9" s="25" customFormat="1" ht="117" x14ac:dyDescent="0.15">
-      <c r="B56">
+    <row r="54" spans="1:9" s="28" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="29">
         <v>21</v>
       </c>
-      <c r="E56" s="14">
+      <c r="B54" s="29">
+        <v>21</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="D54" s="29">
         <v>3</v>
       </c>
-      <c r="F56" s="13" t="s">
+      <c r="E54" s="29">
+        <v>3</v>
+      </c>
+      <c r="F54" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="G56" s="15" t="s">
+      <c r="G54" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="H56" s="15" t="s">
+      <c r="H54" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="I56" s="15" t="s">
+      <c r="I54" s="32" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="2:9" s="25" customFormat="1" ht="169" x14ac:dyDescent="0.15">
-      <c r="B57">
+    <row r="55" spans="1:9" s="17" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="12">
         <v>22</v>
       </c>
-      <c r="E57" s="26">
+      <c r="B55" s="1">
+        <v>22</v>
+      </c>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18">
         <v>3</v>
       </c>
-      <c r="F57" s="25" t="s">
+      <c r="F55" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="G57" s="27" t="s">
+      <c r="G55" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="H57" s="27" t="s">
+      <c r="H55" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="I57" s="27" t="s">
+      <c r="I55" s="36" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="2:9" s="25" customFormat="1" ht="117" x14ac:dyDescent="0.15">
-      <c r="B58" s="25">
+    <row r="56" spans="1:9" s="28" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="29">
+        <v>23</v>
+      </c>
+      <c r="B56" s="29">
         <v>25</v>
       </c>
-      <c r="E58" s="14">
+      <c r="C56" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="D56" s="29">
         <v>3</v>
       </c>
-      <c r="F58" s="13" t="s">
+      <c r="E56" s="29">
+        <v>3</v>
+      </c>
+      <c r="F56" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="G58" s="15" t="s">
+      <c r="G56" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="H58" s="15" t="s">
+      <c r="H56" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="I58" s="15" t="s">
+      <c r="I56" s="32" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="2:9" s="25" customFormat="1" ht="182" x14ac:dyDescent="0.15">
-      <c r="B59" s="25">
+    <row r="57" spans="1:9" s="17" customFormat="1" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="12">
+        <v>24</v>
+      </c>
+      <c r="B57" s="18">
         <v>26</v>
       </c>
-      <c r="E59" s="26">
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18">
         <v>3</v>
       </c>
-      <c r="F59" s="25" t="s">
+      <c r="F57" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="G59" s="27" t="s">
+      <c r="G57" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="H59" s="27" t="s">
+      <c r="H57" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="I59" s="27" t="s">
+      <c r="I57" s="36" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="2:9" s="28" customFormat="1" ht="117" x14ac:dyDescent="0.15">
-      <c r="B60" s="28">
+    <row r="58" spans="1:9" s="28" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="29">
+        <v>25</v>
+      </c>
+      <c r="B58" s="29">
         <v>27</v>
       </c>
-      <c r="E60" s="14">
+      <c r="C58" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="D58" s="29">
+        <v>3</v>
+      </c>
+      <c r="E58" s="29">
         <v>4</v>
       </c>
-      <c r="F60" s="13" t="s">
+      <c r="F58" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="G60" s="15" t="s">
+      <c r="G58" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="H60" s="15" t="s">
+      <c r="H58" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="I60" s="15" t="s">
+      <c r="I58" s="32" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="2:9" s="28" customFormat="1" ht="104" x14ac:dyDescent="0.15">
-      <c r="B61" s="28">
+    <row r="59" spans="1:9" s="19" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="12">
+        <v>26</v>
+      </c>
+      <c r="B59" s="20">
         <v>28</v>
       </c>
-      <c r="E61" s="29">
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20">
         <v>4</v>
       </c>
-      <c r="F61" s="28" t="s">
+      <c r="F59" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="G61" s="30" t="s">
+      <c r="G59" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="H61" s="30" t="s">
+      <c r="H59" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="I61" s="30" t="s">
+      <c r="I59" s="37" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="2:9" s="28" customFormat="1" ht="104" x14ac:dyDescent="0.15">
-      <c r="B62" s="28">
+    <row r="60" spans="1:9" s="28" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="29">
+        <v>27</v>
+      </c>
+      <c r="B60" s="29">
         <v>19</v>
       </c>
-      <c r="E62" s="14">
+      <c r="C60" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="D60" s="29">
+        <v>3</v>
+      </c>
+      <c r="E60" s="29">
         <v>4</v>
       </c>
-      <c r="F62" s="13" t="s">
+      <c r="F60" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="G62" s="15" t="s">
+      <c r="G60" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="H62" s="15" t="s">
+      <c r="H60" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="I62" s="15" t="s">
+      <c r="I60" s="32" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="63" spans="2:9" s="28" customFormat="1" ht="91" x14ac:dyDescent="0.15">
-      <c r="B63" s="28">
+    <row r="61" spans="1:9" s="19" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A61" s="12">
+        <v>28</v>
+      </c>
+      <c r="B61" s="20">
         <v>20</v>
       </c>
-      <c r="E63" s="29">
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20">
         <v>4</v>
       </c>
-      <c r="F63" s="28" t="s">
+      <c r="F61" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="G63" s="30" t="s">
+      <c r="G61" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="H63" s="30" t="s">
+      <c r="H61" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="I63" s="30" t="s">
+      <c r="I61" s="37" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="64" spans="2:9" s="28" customFormat="1" ht="156" x14ac:dyDescent="0.15">
-      <c r="B64" s="28">
+    <row r="62" spans="1:9" s="19" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
         <v>29</v>
       </c>
-      <c r="E64" s="29">
+      <c r="B62" s="20">
+        <v>29</v>
+      </c>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20">
         <v>4</v>
       </c>
-      <c r="F64" s="28" t="s">
+      <c r="F62" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="G64" s="30" t="s">
+      <c r="G62" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="H64" s="30" t="s">
+      <c r="H62" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="I64" s="30" t="s">
+      <c r="I62" s="37" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="65" spans="2:9" s="28" customFormat="1" ht="143" x14ac:dyDescent="0.15">
-      <c r="B65" s="28">
+    <row r="63" spans="1:9" s="19" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A63" s="12">
         <v>30</v>
       </c>
-      <c r="E65" s="29">
+      <c r="B63" s="20">
+        <v>30</v>
+      </c>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20">
         <v>4</v>
       </c>
-      <c r="F65" s="28" t="s">
+      <c r="F63" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="G65" s="30" t="s">
+      <c r="G63" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="H65" s="30" t="s">
+      <c r="H63" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="I65" s="30" t="s">
+      <c r="I63" s="37" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="130" x14ac:dyDescent="0.15">
-      <c r="B66">
+    <row r="64" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
         <v>31</v>
       </c>
+      <c r="B64" s="1">
+        <v>31</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G64" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="H64" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="I64" s="31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="12">
+        <v>32</v>
+      </c>
+      <c r="B65" s="1">
+        <v>32</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G65" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="H65" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="I65" s="31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>33</v>
+      </c>
+      <c r="B66" s="1">
+        <v>33</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
       <c r="E66" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F66" t="s">
-        <v>52</v>
-      </c>
-      <c r="G66" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="H66" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="I66" s="12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" ht="130" x14ac:dyDescent="0.15">
-      <c r="B67">
-        <v>32</v>
-      </c>
+      <c r="F66" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G66" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="H66" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="I66" s="31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="A67" s="12">
+        <v>34</v>
+      </c>
+      <c r="B67" s="1">
+        <v>34</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
       <c r="E67" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F67" t="s">
-        <v>33</v>
-      </c>
-      <c r="G67" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="H67" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="I67" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" ht="130" x14ac:dyDescent="0.15">
-      <c r="B68">
-        <v>33</v>
-      </c>
+      <c r="F67" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G67" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="H67" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="I67" s="31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>35</v>
+      </c>
+      <c r="B68" s="1">
+        <v>35</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
       <c r="E68" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F68" t="s">
-        <v>33</v>
-      </c>
-      <c r="G68" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="H68" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="I68" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" ht="130" x14ac:dyDescent="0.15">
-      <c r="B69">
-        <v>34</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G68" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="H68" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="I68" s="31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="12">
+        <v>36</v>
+      </c>
+      <c r="B69" s="1">
+        <v>36</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
       <c r="E69" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F69" t="s">
-        <v>52</v>
-      </c>
-      <c r="G69" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="H69" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="I69" s="12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" ht="78" x14ac:dyDescent="0.15">
-      <c r="B70">
-        <v>35</v>
-      </c>
-      <c r="E70" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F70" t="s">
-        <v>43</v>
-      </c>
-      <c r="G70" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H70" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="I70" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" ht="156" x14ac:dyDescent="0.15">
-      <c r="B71">
-        <v>36</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F71" t="s">
+      <c r="F69" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G71" s="12" t="s">
+      <c r="G69" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="H71" s="12" t="s">
+      <c r="H69" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="I71" s="12" t="s">
+      <c r="I69" s="31" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3131,12 +3728,12 @@
     <mergeCell ref="B19:C19"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3145,209 +3742,209 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="32">
+      <c r="B1" s="22">
         <v>4</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
       <c r="F1" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-    </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="32" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="37">
+      <c r="B2" s="42">
         <v>42669</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-    </row>
-    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="32" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+    </row>
+    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B3" s="37">
+      <c r="B3" s="42">
         <v>42669</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-    </row>
-    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="32" t="s">
+      <c r="C3" s="42"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="42">
         <v>42669</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-    </row>
-    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="32"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-    </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="32" t="s">
+      <c r="C4" s="42"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="22"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="22">
         <v>23</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-    </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="32" t="s">
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+    </row>
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="22">
         <f t="shared" ref="B7:B13" si="0">B6</f>
         <v>23</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-    </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="32" t="s">
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="22">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-    </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="32" t="s">
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+    </row>
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="22">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-    </row>
-    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="32" t="s">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+    </row>
+    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="22">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-    </row>
-    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="32" t="s">
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+    </row>
+    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="22">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-    </row>
-    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="32" t="s">
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+    </row>
+    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="22">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-    </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="32" t="s">
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+    </row>
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="22">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-    </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+    </row>
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>143</v>
       </c>
@@ -3390,15 +3987,405 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="49.5703125" style="38" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="22">
+        <v>5</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="42">
+        <v>42675</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+    </row>
+    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="42">
+        <v>42677</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="42">
+        <v>42676</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="22"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="22">
+        <v>8</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+    </row>
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="22">
+        <v>6</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="22">
+        <v>6</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+    </row>
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="22">
+        <v>6</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+    </row>
+    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+    </row>
+    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+    </row>
+    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+    </row>
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+    </row>
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>8</v>
+      </c>
+      <c r="B23" s="1">
+        <v>6</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F23" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -3412,11 +4399,11 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -3424,11 +4411,11 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -3436,11 +4423,11 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="31"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -3448,9 +4435,9 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
-      <c r="B5" s="31"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -3458,11 +4445,11 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="22">
         <v>23</v>
       </c>
       <c r="C6" s="2"/>
@@ -3472,11 +4459,11 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="22">
         <f t="shared" ref="B7:B13" si="0">B6</f>
         <v>23</v>
       </c>
@@ -3487,11 +4474,11 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="22">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
@@ -3502,11 +4489,11 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="22">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
@@ -3517,11 +4504,11 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="22">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
@@ -3532,11 +4519,11 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="22">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
@@ -3547,11 +4534,11 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="22">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
@@ -3562,11 +4549,11 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="22">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
@@ -3577,7 +4564,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3587,7 +4574,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>143</v>
       </c>
